--- a/Task Report/excell/Work list/Daily Work item Mar.xlsx
+++ b/Task Report/excell/Work list/Daily Work item Mar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shahid Raza\Capitall\VSA project functionality\Task Report\excell\Work list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43AFB42-2B25-4286-9E04-B7FD4A4C7E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB52557-558B-4732-8757-8529A8E61875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F449CF3F-2305-43BB-B3E0-B1B1DFD80D34}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
   <si>
     <t>Done</t>
   </si>
@@ -183,13 +183,90 @@
   </si>
   <si>
     <t xml:space="preserve">client want to insert data value 0 to total hour and hour after exam leave and casual leave taken </t>
+  </si>
+  <si>
+    <t>page design fixed on time sheet request list for partner</t>
+  </si>
+  <si>
+    <t>client want to display only Excel button</t>
+  </si>
+  <si>
+    <t>client want to only accending order date wise on time sheet request list</t>
+  </si>
+  <si>
+    <t>some modification inside downloaded Excel on time sheet request list</t>
+  </si>
+  <si>
+    <t>client want to remove PDF copy button on time sheet save page</t>
+  </si>
+  <si>
+    <t>ordering date wise on time sheet save page</t>
+  </si>
+  <si>
+    <t>remove all comma on time sheet save page and inside Excel</t>
+  </si>
+  <si>
+    <t>data fix inside Excel on team time sheet report</t>
+  </si>
+  <si>
+    <t>all comma remove ordering fixed and fix data inside excell on my time sheet page</t>
+  </si>
+  <si>
+    <t>1.input box default should be 2 on add time sheet
+2.client want to add input box after click add icon
+3. Client want to set default data when ofholidays selected</t>
+  </si>
+  <si>
+    <t>1. Client want to modify email content when new team member added and assignment create
+2. Client want to total hour and partner name on view assignment module
+3. All code upload on server
+4. Client want to add team member in assignment according like partner on admin</t>
+  </si>
+  <si>
+    <t>1. Fix date format default on team timesheet  report
+2. Assignment generate ID insert in time sheet user table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Assignment generate ID insert in time sheet user table
+2. Assignment folder delete problem fixed ( no any problem explain)</t>
+  </si>
+  <si>
+    <t>1.Assignment generate ID insert in time sheet user table
+2. Time sheet save delete bugs fixed</t>
+  </si>
+  <si>
+    <t>1. Time sheet save delete bugs fixed
+2. Client want to display lost data on partner team time sheet (2024)</t>
+  </si>
+  <si>
+    <t>3. Documentation done</t>
+  </si>
+  <si>
+    <t>1. Revert live problem fixed
+2. Balance confirmation</t>
+  </si>
+  <si>
+    <t>timesheet request</t>
+  </si>
+  <si>
+    <t>leave</t>
+  </si>
+  <si>
+    <t>team timesheet report</t>
+  </si>
+  <si>
+    <t>my timesheet</t>
+  </si>
+  <si>
+    <t>add timesheet,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +278,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -226,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -247,10 +331,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CF1CAA-9826-45C3-A953-A352A8A60D63}">
   <dimension ref="A1:G239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="111" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -581,10 +671,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -592,11 +682,11 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -718,7 +808,7 @@
         <v>45355</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -728,7 +818,7 @@
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="7"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
@@ -736,7 +826,7 @@
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
@@ -760,7 +850,7 @@
       <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -772,7 +862,7 @@
       <c r="C22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
@@ -871,7 +961,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B34" s="4"/>
@@ -1055,8 +1145,12 @@
       <c r="B55" s="4">
         <v>45366</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -1064,47 +1158,63 @@
         <v>48</v>
       </c>
       <c r="B56" s="4"/>
-      <c r="C56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="B57" s="4"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="B58" s="4"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B59" s="4"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="B60" s="4"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B61" s="4"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="B62" s="4"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B63" s="4"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1123,15 +1233,27 @@
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="1"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" s="4">
+        <v>45367</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="B67" s="4"/>
-      <c r="C67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -1146,11 +1268,19 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="1"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+    <row r="70" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" s="4">
+        <v>45369</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
@@ -1164,11 +1294,17 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="1"/>
-      <c r="B73" s="4"/>
+    <row r="73" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B73" s="4">
+        <v>45370</v>
+      </c>
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
@@ -1182,11 +1318,17 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="1"/>
-      <c r="B76" s="4"/>
+    <row r="76" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A76" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76" s="4">
+        <v>45371</v>
+      </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
@@ -1200,11 +1342,17 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="1"/>
-      <c r="B79" s="4"/>
+    <row r="79" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B79" s="4">
+        <v>45372</v>
+      </c>
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
@@ -1218,11 +1366,17 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="1"/>
-      <c r="B82" s="4"/>
+    <row r="82" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A82" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B82" s="4">
+        <v>45373</v>
+      </c>
       <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
@@ -1236,14 +1390,22 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="1"/>
-      <c r="B85" s="4"/>
+    <row r="85" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A85" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B85" s="4">
+        <v>45377</v>
+      </c>
       <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="1"/>
+      <c r="A86" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="B86" s="4"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -1260,11 +1422,17 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="1"/>
-      <c r="B89" s="4"/>
+    <row r="89" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A89" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B89" s="4">
+        <v>45378</v>
+      </c>
       <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="D89" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>

--- a/Task Report/excell/Work list/Daily Work item Mar.xlsx
+++ b/Task Report/excell/Work list/Daily Work item Mar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shahid Raza\Capitall\VSA project functionality\Task Report\excell\Work list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB52557-558B-4732-8757-8529A8E61875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB63DA9-8DFE-4329-80B6-E7054A61A729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F449CF3F-2305-43BB-B3E0-B1B1DFD80D34}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
   <si>
     <t>Done</t>
   </si>
@@ -260,6 +260,14 @@
   </si>
   <si>
     <t>add timesheet,</t>
+  </si>
+  <si>
+    <t>Balance confirmation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On Blance confirmation 
+ 1.Pending reminder 
+ 2.Save as draft and save button </t>
   </si>
 </sst>
 </file>
@@ -333,14 +341,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CF1CAA-9826-45C3-A953-A352A8A60D63}">
-  <dimension ref="A1:G239"/>
+  <dimension ref="A1:G237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="111" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="111" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -671,10 +679,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -682,11 +690,11 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -808,7 +816,7 @@
         <v>45355</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -818,7 +826,7 @@
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="8"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
@@ -826,7 +834,7 @@
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="8"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
@@ -850,7 +858,7 @@
       <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -862,7 +870,7 @@
       <c r="C22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
@@ -961,7 +969,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B34" s="4"/>
@@ -1441,10 +1449,16 @@
       <c r="D90" s="1"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="1"/>
-      <c r="B91" s="4"/>
+      <c r="A91" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" s="4">
+        <v>45379</v>
+      </c>
       <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
@@ -1453,10 +1467,16 @@
       <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="1"/>
-      <c r="B93" s="4"/>
+      <c r="A93" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B93" s="4">
+        <v>45380</v>
+      </c>
       <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
+      <c r="D93" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
@@ -1464,207 +1484,213 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="1"/>
-      <c r="B95" s="4"/>
+    <row r="95" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B95" s="4">
+        <v>45381</v>
+      </c>
       <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
+      <c r="D95" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="4"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="5"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="4"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="5"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="4"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="5"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="4"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="5"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="4"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="5"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="4"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="5"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="4"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="5"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="4"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="5"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="4"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="5"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="4"/>
       <c r="C105" s="1"/>
-      <c r="D105" s="5"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="4"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="5"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="4"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="5"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="4"/>
       <c r="C108" s="1"/>
-      <c r="D108" s="5"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="4"/>
       <c r="C109" s="1"/>
-      <c r="D109" s="5"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="4"/>
       <c r="C110" s="1"/>
-      <c r="D110" s="5"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="4"/>
       <c r="C111" s="1"/>
-      <c r="D111" s="5"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="4"/>
       <c r="C112" s="1"/>
-      <c r="D112" s="5"/>
+      <c r="D112" s="1"/>
+      <c r="G112" s="6"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="4"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="5"/>
+      <c r="D113" s="1"/>
+      <c r="G113" s="6"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="4"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="5"/>
+      <c r="D114" s="1"/>
       <c r="G114" s="6"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="4"/>
       <c r="C115" s="1"/>
-      <c r="D115" s="5"/>
+      <c r="D115" s="1"/>
       <c r="G115" s="6"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="4"/>
       <c r="C116" s="1"/>
-      <c r="D116" s="5"/>
-      <c r="G116" s="6"/>
+      <c r="D116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="4"/>
       <c r="C117" s="1"/>
-      <c r="D117" s="5"/>
-      <c r="G117" s="6"/>
+      <c r="D117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="4"/>
       <c r="C118" s="1"/>
-      <c r="D118" s="5"/>
+      <c r="D118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="4"/>
       <c r="C119" s="1"/>
-      <c r="D119" s="5"/>
+      <c r="D119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="4"/>
       <c r="C120" s="1"/>
-      <c r="D120" s="5"/>
+      <c r="D120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="4"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="5"/>
+      <c r="D121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="4"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="5"/>
+      <c r="D122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="4"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="5"/>
+      <c r="D123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="4"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="5"/>
+      <c r="D124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="4"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="5"/>
+      <c r="D125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="4"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="5"/>
+      <c r="D126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="4"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="5"/>
+      <c r="D127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
@@ -1892,13 +1918,11 @@
       <c r="A165" s="1"/>
       <c r="B165" s="4"/>
       <c r="C165" s="1"/>
-      <c r="D165" s="5"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="B166" s="4"/>
       <c r="C166" s="1"/>
-      <c r="D166" s="5"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
@@ -2227,13 +2251,9 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="1"/>
-      <c r="B232" s="4"/>
-      <c r="C232" s="1"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="1"/>
-      <c r="B233" s="4"/>
-      <c r="C233" s="1"/>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="1"/>
@@ -2246,12 +2266,6 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="1"/>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A238" s="1"/>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A239" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
